--- a/outputs/pVals6.2.xlsx
+++ b/outputs/pVals6.2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,16 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\IISc\CVO\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B1EBE760-22B3-40BD-AA9C-2B9EAFC39E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5281EC3B-B835-4AFA-94B6-E6922E471B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pVals6.1" sheetId="3" r:id="rId1"/>
     <sheet name="pVals6.2" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -162,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1212,9 +1222,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Size 20 Random Values vs Probabilities</a:t>
+              <a:rPr lang="en-IN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Size 30 Random Values vs Probabilities</a:t>
             </a:r>
+            <a:endParaRPr lang="en-IN">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1258,11 +1273,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$2</c:f>
+              <c:f>Sheet1!$U$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 20 PVals </c:v>
+                  <c:v> 30 PVals </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1293,138 +1308,198 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$22</c:f>
+              <c:f>Sheet1!$A$3:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-0.96558620442079002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.88159639039207005</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.65829804921656598</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.63500104115342504</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.63191146994210001</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.507440767023558</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.47869806530963899</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.420358331800119</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.37808981714587903</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.296247156194201</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.25190252003710201</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.11987729319982</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.9420638654408293E-3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.264447545805721</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40670503987221801</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.58098380598586497</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.72688844611885906</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.89744781977292298</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.90402818881527602</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.90496380020623601</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$22</c:f>
+              <c:f>Sheet1!$U$3:$U$32</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.15997386260964899</c:v>
+                  <c:v>7.3182348688614701E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.102180546757074</c:v>
+                  <c:v>6.5789254723921595E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1030586610567599E-2</c:v>
+                  <c:v>6.1235383658317301E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7402687271120999E-2</c:v>
+                  <c:v>4.4615189185142699E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.69545643467641E-2</c:v>
+                  <c:v>3.4244991251152102E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3873370186461899E-2</c:v>
+                  <c:v>2.4715338471043801E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1900318106574499E-2</c:v>
+                  <c:v>2.14528522624759E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7163918414198405E-3</c:v>
+                  <c:v>1.7617014518483801E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9559875134212598E-3</c:v>
+                  <c:v>7.4827613698259902E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4944254788283899E-3</c:v>
+                  <c:v>7.3762289855754401E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.54693320851634E-3</c:v>
+                  <c:v>7.3523888158670897E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7530485525641599E-3</c:v>
+                  <c:v>6.1655691683608297E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.86149821124895E-4</c:v>
+                  <c:v>5.4231226569615397E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.25535026792808E-4</c:v>
+                  <c:v>4.84467395795375E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.05596968967122E-4</c:v>
+                  <c:v>4.7919812024484502E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.30006905394977901</c:v>
+                  <c:v>3.72613246098561E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13773743934920499</c:v>
+                  <c:v>3.4185345460613801E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5428546751674003E-2</c:v>
+                  <c:v>2.8562955765404599E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3515744482784497E-2</c:v>
+                  <c:v>1.68576796104209E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3249218854516903E-2</c:v>
+                  <c:v>7.6766954912054299E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.1799004013664603E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8517361977596699E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.73255409040326E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5159066683418699E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.28501933186343E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.22282863613503101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.17585267202164001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.79707202920405E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6974622880450299E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.6373349453526599E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1432,7 +1507,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D2C1-4AC6-AFB3-37D39209D460}"/>
+              <c16:uniqueId val="{00000000-7C55-49CF-A583-A6DB22C1BC53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1444,13 +1519,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="494523696"/>
-        <c:axId val="494519760"/>
+        <c:axId val="849831728"/>
+        <c:axId val="849836648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="494523696"/>
+        <c:axId val="849831728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1505,12 +1581,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494519760"/>
+        <c:crossAx val="849836648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494519760"/>
+        <c:axId val="849836648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1567,7 +1643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494523696"/>
+        <c:crossAx val="849831728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1616,7 +1692,500 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Size 20 Random Values vs Probabilities</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 20 PVals </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.15997386260964899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.102180546757074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1030586610567599E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7402687271120999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.69545643467641E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3873370186461899E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1900318106574499E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7163918414198405E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9559875134212598E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4944254788283899E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.54693320851634E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7530485525641599E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.86149821124895E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.25535026792808E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.05596968967122E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30006905394977901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13773743934920499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5428546751674003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3515744482784497E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.3249218854516903E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6248-44AE-BDDE-1793B5623119}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="849830088"/>
+        <c:axId val="849830744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="849830088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="849830744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="849830744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="849830088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2172,27 +2741,603 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E080742-0BF1-42DE-B22D-F4311C579F83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7AFE491-17B9-4F74-BF87-FABD80DC42DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,6 +3350,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E35DBB-6518-4151-ABB6-CF317CC1634B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2509,11 +3690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U11" sqref="B3:U11"/>
+      <selection activeCell="J29" sqref="I29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3028,11 +4209,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4416,11 +5597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
